--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alen/IdeaProjects/cydeo-cucmber-junit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3606B656-8B6C-C84D-96F7-54C2E3EBF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA55B7C1-8324-F145-B377-758C356359EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6289CC83-0B10-4548-A82D-E8A91089918A}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6289CC83-0B10-4548-A82D-E8A91089918A}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>PO</t>
   </si>
   <si>
-    <t>Vinnod</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Vinod</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,35 +461,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alen/IdeaProjects/cydeo-cucmber-junit/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Firstname</t>
   </si>
@@ -78,12 +78,16 @@
   </si>
   <si>
     <t>Vinod</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -429,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C5CF0A-FFC0-3944-AC4B-69CE417DCE73}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -438,58 +442,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>200000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>110000.0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>123000.0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>130000.0</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Firstname</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Jones</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>5</v>
